--- a/trame_analytique.xlsx
+++ b/trame_analytique.xlsx
@@ -5,14 +5,14 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\achat.eiffageci\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\achat.eiffageci\storage\app\trame\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9300"/>
   </bookViews>
   <sheets>
-    <sheet name="trame" sheetId="1" r:id="rId1"/>
+    <sheet name="TRAME" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -566,6 +566,17 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:B1198" totalsRowShown="0">
+  <autoFilter ref="A1:B1198"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="codeRubrique"/>
+    <tableColumn id="2" name="libelle"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -834,7 +845,7 @@
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -853,5 +864,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>